--- a/continual_rl_papers_updated.xlsx
+++ b/continual_rl_papers_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohsenarjmandi/workspace/sensi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549F829-8A98-E24E-AA9B-BE6F7FC06F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BCC66-799F-9246-8F58-30604F783F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="620" windowWidth="55020" windowHeight="29720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,16 +929,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="68.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
   </cols>
